--- a/biology/Zoologie/Edenopteron/Edenopteron.xlsx
+++ b/biology/Zoologie/Edenopteron/Edenopteron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edenopteron keithcrooki
-Edenopteron est un genre éteint de poissons à membres charnus au sein de la famille des Tristichopteridae[1].
+Edenopteron est un genre éteint de poissons à membres charnus au sein de la famille des Tristichopteridae.
 Le seul fossile et la seule espèce rattachés à ce genre, Edenopteron keithcrooki, a été découvert en Australie en 2008  près de la ville d'Eden dans l'État de Nouvelle-Galles du Sud et fut décrit en 2013. Il est daté du Dévonien supérieur (Famennien), soit il y a environ 360 Ma (millions d'années).
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edenopteron est la conjugaison du nom de la ville australienne voisine (Eden) et du grec « Ptéron » (aile, aileron).
 </t>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le matériel fossile est principalement constitué d'une large partie du crâne, des mandibules, d'une ceinture scapulaire et d'os dermiques[1].
-Le crâne a environ 30 cm de long, ce qui par extrapolation, en comparaison avec d'autres Tristichopteridae connus par des fossiles plus complets, donnerait une longueur de 3 m pour l'animal en faisant ainsi un des plus grands Tristichopteridae du Dévonien[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le matériel fossile est principalement constitué d'une large partie du crâne, des mandibules, d'une ceinture scapulaire et d'os dermiques.
+Le crâne a environ 30 cm de long, ce qui par extrapolation, en comparaison avec d'autres Tristichopteridae connus par des fossiles plus complets, donnerait une longueur de 3 m pour l'animal en faisant ainsi un des plus grands Tristichopteridae du Dévonien.
 La forme triangulaire des orbites du crâne est une particularité du genre.
 </t>
         </is>
